--- a/Outputs/Tables/Stats_Individual.xlsx
+++ b/Outputs/Tables/Stats_Individual.xlsx
@@ -563,7 +563,7 @@
         <v>23.99</v>
       </c>
       <c r="F2" t="n">
-        <v>-88.05</v>
+        <v>36.2</v>
       </c>
       <c r="G2" t="n">
         <v>-57.14</v>
@@ -575,7 +575,7 @@
         <v>14.68</v>
       </c>
       <c r="J2" t="n">
-        <v>-88.48</v>
+        <v>29.85</v>
       </c>
       <c r="K2" t="n">
         <v>-30.69</v>
@@ -587,7 +587,7 @@
         <v>58.74</v>
       </c>
       <c r="N2" t="n">
-        <v>-86.56</v>
+        <v>59.9</v>
       </c>
       <c r="O2" t="n">
         <v>-55.62</v>
@@ -599,7 +599,7 @@
         <v>22.29</v>
       </c>
       <c r="R2" t="n">
-        <v>-88.4</v>
+        <v>31.91</v>
       </c>
       <c r="S2" t="n">
         <v>28.83</v>
@@ -611,7 +611,7 @@
         <v>57.64</v>
       </c>
       <c r="V2" t="n">
-        <v>-81.63</v>
+        <v>121.07</v>
       </c>
     </row>
     <row r="3">
@@ -631,7 +631,7 @@
         <v>15.97</v>
       </c>
       <c r="F3" t="n">
-        <v>-94.23</v>
+        <v>34.14</v>
       </c>
       <c r="G3" t="n">
         <v>-11.96</v>
@@ -643,7 +643,7 @@
         <v>12.01</v>
       </c>
       <c r="J3" t="n">
-        <v>-94.1</v>
+        <v>27.87</v>
       </c>
       <c r="K3" t="n">
         <v>44.06</v>
@@ -655,7 +655,7 @@
         <v>36.25</v>
       </c>
       <c r="N3" t="n">
-        <v>-94.71</v>
+        <v>66.24</v>
       </c>
       <c r="O3" t="n">
         <v>-8.07</v>
@@ -667,7 +667,7 @@
         <v>10.95</v>
       </c>
       <c r="R3" t="n">
-        <v>-94.48</v>
+        <v>29.11</v>
       </c>
       <c r="S3" t="n">
         <v>85.65</v>
@@ -679,7 +679,7 @@
         <v>100.43</v>
       </c>
       <c r="V3" t="n">
-        <v>-89.62</v>
+        <v>118.77</v>
       </c>
     </row>
     <row r="4">
@@ -699,7 +699,7 @@
         <v>-6.87</v>
       </c>
       <c r="F4" t="n">
-        <v>-96.91</v>
+        <v>-13.14</v>
       </c>
       <c r="G4" t="n">
         <v>-12.56</v>
@@ -711,7 +711,7 @@
         <v>-11.17</v>
       </c>
       <c r="J4" t="n">
-        <v>-96.92</v>
+        <v>-15.42</v>
       </c>
       <c r="K4" t="n">
         <v>34.39</v>
@@ -723,7 +723,7 @@
         <v>10.11</v>
       </c>
       <c r="N4" t="n">
-        <v>-96.87</v>
+        <v>-4.14</v>
       </c>
       <c r="O4" t="n">
         <v>-6.81</v>
@@ -735,7 +735,7 @@
         <v>-8.71</v>
       </c>
       <c r="R4" t="n">
-        <v>-97.01</v>
+        <v>-16.18</v>
       </c>
       <c r="S4" t="n">
         <v>69.97</v>
@@ -747,7 +747,7 @@
         <v>29.25</v>
       </c>
       <c r="V4" t="n">
-        <v>-95.02</v>
+        <v>46.56</v>
       </c>
     </row>
     <row r="5">
@@ -766,7 +766,9 @@
       <c r="E5" t="n">
         <v>-4.85</v>
       </c>
-      <c r="F5"/>
+      <c r="F5" t="n">
+        <v>-98.25</v>
+      </c>
       <c r="G5" t="n">
         <v>-46.2</v>
       </c>
@@ -776,7 +778,9 @@
       <c r="I5" t="n">
         <v>-12.14</v>
       </c>
-      <c r="J5"/>
+      <c r="J5" t="n">
+        <v>-98.14</v>
+      </c>
       <c r="K5" t="n">
         <v>-14.61</v>
       </c>
@@ -786,7 +790,9 @@
       <c r="M5" t="n">
         <v>29.02</v>
       </c>
-      <c r="N5"/>
+      <c r="N5" t="n">
+        <v>-98.75</v>
+      </c>
       <c r="O5" t="n">
         <v>-43.9</v>
       </c>
@@ -796,7 +802,9 @@
       <c r="Q5" t="n">
         <v>-4.79</v>
       </c>
-      <c r="R5"/>
+      <c r="R5" t="n">
+        <v>-100</v>
+      </c>
       <c r="S5" t="n">
         <v>8.18</v>
       </c>
@@ -806,7 +814,9 @@
       <c r="U5" t="n">
         <v>-5.76</v>
       </c>
-      <c r="V5"/>
+      <c r="V5" t="n">
+        <v>-72.4</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -825,7 +835,7 @@
         <v>-8.32</v>
       </c>
       <c r="F6" t="n">
-        <v>-97.13</v>
+        <v>4.03</v>
       </c>
       <c r="G6" t="n">
         <v>-25.01</v>
@@ -837,7 +847,7 @@
         <v>-15.09</v>
       </c>
       <c r="J6" t="n">
-        <v>-97.2</v>
+        <v>-1.35</v>
       </c>
       <c r="K6" t="n">
         <v>28.57</v>
@@ -849,7 +859,7 @@
         <v>19.21</v>
       </c>
       <c r="N6" t="n">
-        <v>-96.89</v>
+        <v>25.87</v>
       </c>
       <c r="O6" t="n">
         <v>-15.7</v>
@@ -861,7 +871,7 @@
         <v>-10.05</v>
       </c>
       <c r="R6" t="n">
-        <v>-97.16</v>
+        <v>1.08</v>
       </c>
       <c r="S6" t="n">
         <v>20.8</v>
@@ -873,7 +883,7 @@
         <v>40.17</v>
       </c>
       <c r="V6" t="n">
-        <v>-96.5</v>
+        <v>86.39</v>
       </c>
     </row>
     <row r="7">
@@ -893,7 +903,7 @@
         <v>5.1</v>
       </c>
       <c r="F7" t="n">
-        <v>-93.36</v>
+        <v>16.62</v>
       </c>
       <c r="G7" t="n">
         <v>-47.43</v>
@@ -905,7 +915,7 @@
         <v>-2.54</v>
       </c>
       <c r="J7" t="n">
-        <v>-93.13</v>
+        <v>9.86</v>
       </c>
       <c r="K7" t="n">
         <v>7.67</v>
@@ -917,7 +927,7 @@
         <v>50.81</v>
       </c>
       <c r="N7" t="n">
-        <v>-94.19</v>
+        <v>57.09</v>
       </c>
       <c r="O7" t="n">
         <v>-43.99</v>
@@ -929,7 +939,7 @@
         <v>3.19</v>
       </c>
       <c r="R7" t="n">
-        <v>-93.6</v>
+        <v>13.39</v>
       </c>
       <c r="S7" t="n">
         <v>32.22</v>
@@ -941,7 +951,7 @@
         <v>35.77</v>
       </c>
       <c r="V7" t="n">
-        <v>-88.96</v>
+        <v>68.7</v>
       </c>
     </row>
     <row r="8">
@@ -961,7 +971,7 @@
         <v>7.3</v>
       </c>
       <c r="F8" t="n">
-        <v>-92.35</v>
+        <v>11.76</v>
       </c>
       <c r="G8" t="n">
         <v>-6.78</v>
@@ -973,7 +983,7 @@
         <v>5.69</v>
       </c>
       <c r="J8" t="n">
-        <v>-92.93</v>
+        <v>10.71</v>
       </c>
       <c r="K8" t="n">
         <v>13.48</v>
@@ -985,7 +995,7 @@
         <v>11.58</v>
       </c>
       <c r="N8" t="n">
-        <v>-90.29</v>
+        <v>14.55</v>
       </c>
       <c r="O8" t="n">
         <v>-5.35</v>
@@ -997,7 +1007,7 @@
         <v>5.16</v>
       </c>
       <c r="R8" t="n">
-        <v>-92.58</v>
+        <v>8.83</v>
       </c>
       <c r="S8" t="n">
         <v>70.43</v>
@@ -1009,7 +1019,7 @@
         <v>44.68</v>
       </c>
       <c r="V8" t="n">
-        <v>-88.11</v>
+        <v>62.88</v>
       </c>
     </row>
     <row r="9">
@@ -1029,7 +1039,7 @@
         <v>-11.27</v>
       </c>
       <c r="F9" t="n">
-        <v>-89.64</v>
+        <v>-11.52</v>
       </c>
       <c r="G9" t="n">
         <v>-16.93</v>
@@ -1041,7 +1051,7 @@
         <v>-15.53</v>
       </c>
       <c r="J9" t="n">
-        <v>-90.28</v>
+        <v>-15.68</v>
       </c>
       <c r="K9" t="n">
         <v>7.33</v>
@@ -1053,7 +1063,7 @@
         <v>2.75</v>
       </c>
       <c r="N9" t="n">
-        <v>-87.36</v>
+        <v>2.22</v>
       </c>
       <c r="O9" t="n">
         <v>-14.49</v>
@@ -1065,7 +1075,7 @@
         <v>-12.19</v>
       </c>
       <c r="R9" t="n">
-        <v>-90.05</v>
+        <v>-13.35</v>
       </c>
       <c r="S9" t="n">
         <v>31.73</v>
@@ -1077,7 +1087,7 @@
         <v>1.09</v>
       </c>
       <c r="V9" t="n">
-        <v>-81.93</v>
+        <v>13.14</v>
       </c>
     </row>
     <row r="10">
@@ -1088,64 +1098,64 @@
         <v>31</v>
       </c>
       <c r="C10" t="n">
-        <v>-19.17</v>
+        <v>-23.95</v>
       </c>
       <c r="D10" t="n">
-        <v>-5.66</v>
+        <v>-9.07</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.99</v>
+        <v>-19.02</v>
       </c>
       <c r="F10" t="n">
-        <v>-96.67</v>
+        <v>-21.31</v>
       </c>
       <c r="G10" t="n">
-        <v>-24.53</v>
+        <v>-29.37</v>
       </c>
       <c r="H10" t="n">
-        <v>-10.21</v>
+        <v>-13.89</v>
       </c>
       <c r="I10" t="n">
-        <v>-20.92</v>
+        <v>-24.16</v>
       </c>
       <c r="J10" t="n">
-        <v>-96.82</v>
+        <v>-25.02</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.52</v>
+        <v>-4.65</v>
       </c>
       <c r="L10" t="n">
-        <v>10.12</v>
+        <v>8.07</v>
       </c>
       <c r="M10" t="n">
-        <v>1.11</v>
+        <v>-0.77</v>
       </c>
       <c r="N10" t="n">
-        <v>-96.13</v>
+        <v>-8.14</v>
       </c>
       <c r="O10" t="n">
+        <v>-26.7</v>
+      </c>
+      <c r="P10" t="n">
+        <v>-8.98</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>-18.54</v>
+      </c>
+      <c r="R10" t="n">
         <v>-21.71</v>
       </c>
-      <c r="P10" t="n">
-        <v>-5.32</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>-15.26</v>
-      </c>
-      <c r="R10" t="n">
-        <v>-96.73</v>
-      </c>
       <c r="S10" t="n">
-        <v>16.72</v>
+        <v>16.45</v>
       </c>
       <c r="T10" t="n">
-        <v>-10.48</v>
+        <v>-10.31</v>
       </c>
       <c r="U10" t="n">
-        <v>-26.34</v>
+        <v>-26.2</v>
       </c>
       <c r="V10" t="n">
-        <v>-95.51</v>
+        <v>-15.44</v>
       </c>
     </row>
     <row r="11">
@@ -1165,7 +1175,7 @@
         <v>-24.7</v>
       </c>
       <c r="F11" t="n">
-        <v>-94.68</v>
+        <v>-26.1</v>
       </c>
       <c r="G11" t="n">
         <v>-62.59</v>
@@ -1177,7 +1187,7 @@
         <v>-24.16</v>
       </c>
       <c r="J11" t="n">
-        <v>-94.42</v>
+        <v>-24.41</v>
       </c>
       <c r="K11" t="n">
         <v>-55.7</v>
@@ -1189,7 +1199,7 @@
         <v>-26.9</v>
       </c>
       <c r="N11" t="n">
-        <v>-95.63</v>
+        <v>-32.88</v>
       </c>
       <c r="O11" t="n">
         <v>-64.97</v>
@@ -1201,7 +1211,7 @@
         <v>-25.76</v>
       </c>
       <c r="R11" t="n">
-        <v>-94.98</v>
+        <v>-29.4</v>
       </c>
       <c r="S11" t="n">
         <v>-3.77</v>
@@ -1213,7 +1223,7 @@
         <v>-8.49</v>
       </c>
       <c r="V11" t="n">
-        <v>-89.2</v>
+        <v>24.46</v>
       </c>
     </row>
     <row r="12">
@@ -1233,7 +1243,7 @@
         <v>-34.31</v>
       </c>
       <c r="F12" t="n">
-        <v>-99.01</v>
+        <v>-30.53</v>
       </c>
       <c r="G12" t="n">
         <v>-70.84</v>
@@ -1245,7 +1255,7 @@
         <v>-43.17</v>
       </c>
       <c r="J12" t="n">
-        <v>-99.09</v>
+        <v>-41.47</v>
       </c>
       <c r="K12" t="n">
         <v>-53.08</v>
@@ -1257,7 +1267,7 @@
         <v>18.19</v>
       </c>
       <c r="N12" t="n">
-        <v>-98.75</v>
+        <v>34.31</v>
       </c>
       <c r="O12" t="n">
         <v>-71.62</v>
@@ -1269,7 +1279,7 @@
         <v>-37.13</v>
       </c>
       <c r="R12" t="n">
-        <v>-99.09</v>
+        <v>-35.22</v>
       </c>
       <c r="S12" t="n">
         <v>-13.21</v>
@@ -1281,7 +1291,7 @@
         <v>12.07</v>
       </c>
       <c r="V12" t="n">
-        <v>-97.65</v>
+        <v>46.62</v>
       </c>
     </row>
     <row r="13">
@@ -1359,7 +1369,7 @@
         <v>0.68</v>
       </c>
       <c r="F14" t="n">
-        <v>-97.26</v>
+        <v>-13.59</v>
       </c>
       <c r="G14" t="n">
         <v>-12.71</v>
@@ -1371,7 +1381,7 @@
         <v>-10.86</v>
       </c>
       <c r="J14" t="n">
-        <v>-97.83</v>
+        <v>-21.23</v>
       </c>
       <c r="K14" t="n">
         <v>30.81</v>
@@ -1383,7 +1393,7 @@
         <v>24.95</v>
       </c>
       <c r="N14" t="n">
-        <v>-95.26</v>
+        <v>2.48</v>
       </c>
       <c r="O14" t="n">
         <v>-1.79</v>
@@ -1395,7 +1405,7 @@
         <v>0.51</v>
       </c>
       <c r="R14" t="n">
-        <v>-97.17</v>
+        <v>-14.57</v>
       </c>
       <c r="S14" t="n">
         <v>361.87</v>
@@ -1407,7 +1417,7 @@
         <v>19.37</v>
       </c>
       <c r="V14" t="n">
-        <v>-98.94</v>
+        <v>100.15</v>
       </c>
     </row>
     <row r="15">
@@ -1426,7 +1436,9 @@
       <c r="E15" t="n">
         <v>15.09</v>
       </c>
-      <c r="F15"/>
+      <c r="F15" t="n">
+        <v>-91.02</v>
+      </c>
       <c r="G15" t="n">
         <v>-5.82</v>
       </c>
@@ -1436,7 +1448,9 @@
       <c r="I15" t="n">
         <v>5.22</v>
       </c>
-      <c r="J15"/>
+      <c r="J15" t="n">
+        <v>-90.5</v>
+      </c>
       <c r="K15" t="n">
         <v>46.37</v>
       </c>
@@ -1446,7 +1460,9 @@
       <c r="M15" t="n">
         <v>42.37</v>
       </c>
-      <c r="N15"/>
+      <c r="N15" t="n">
+        <v>-92.46</v>
+      </c>
       <c r="O15" t="n">
         <v>4.09</v>
       </c>
@@ -1456,7 +1472,9 @@
       <c r="Q15" t="n">
         <v>10.44</v>
       </c>
-      <c r="R15"/>
+      <c r="R15" t="n">
+        <v>-94.25</v>
+      </c>
       <c r="S15" t="n">
         <v>170.64</v>
       </c>
@@ -1466,7 +1484,9 @@
       <c r="U15" t="n">
         <v>206.42</v>
       </c>
-      <c r="V15"/>
+      <c r="V15" t="n">
+        <v>41.86</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1485,7 +1505,7 @@
         <v>-23.54</v>
       </c>
       <c r="F16" t="n">
-        <v>-96.94</v>
+        <v>-33.52</v>
       </c>
       <c r="G16" t="n">
         <v>-31.84</v>
@@ -1497,7 +1517,7 @@
         <v>-25.01</v>
       </c>
       <c r="J16" t="n">
-        <v>-97.12</v>
+        <v>-35.96</v>
       </c>
       <c r="K16" t="n">
         <v>-5.99</v>
@@ -1509,7 +1529,7 @@
         <v>-18.87</v>
       </c>
       <c r="N16" t="n">
-        <v>-96.28</v>
+        <v>-25.78</v>
       </c>
       <c r="O16" t="n">
         <v>-31.31</v>
@@ -1521,7 +1541,7 @@
         <v>-25.36</v>
       </c>
       <c r="R16" t="n">
-        <v>-97.01</v>
+        <v>-35.22</v>
       </c>
       <c r="S16" t="n">
         <v>83.36</v>
@@ -1533,7 +1553,7 @@
         <v>11.58</v>
       </c>
       <c r="V16" t="n">
-        <v>-95.55</v>
+        <v>-0.89</v>
       </c>
     </row>
     <row r="17">
@@ -1553,7 +1573,7 @@
         <v>-36.69</v>
       </c>
       <c r="F17" t="n">
-        <v>-97.5</v>
+        <v>-64.3</v>
       </c>
       <c r="G17" t="n">
         <v>-39.44</v>
@@ -1565,7 +1585,7 @@
         <v>-39.81</v>
       </c>
       <c r="J17" t="n">
-        <v>-97.71</v>
+        <v>-66.33</v>
       </c>
       <c r="K17" t="n">
         <v>-19.39</v>
@@ -1577,7 +1597,7 @@
         <v>-27.04</v>
       </c>
       <c r="N17" t="n">
-        <v>-96.74</v>
+        <v>-58.01</v>
       </c>
       <c r="O17" t="n">
         <v>-38.32</v>
@@ -1589,7 +1609,7 @@
         <v>-37.79</v>
       </c>
       <c r="R17" t="n">
-        <v>-97.58</v>
+        <v>-65.55</v>
       </c>
       <c r="S17" t="n">
         <v>41.07</v>
@@ -1601,7 +1621,7 @@
         <v>-14.78</v>
       </c>
       <c r="V17" t="n">
-        <v>-96.01</v>
+        <v>-39.24</v>
       </c>
     </row>
     <row r="18">
@@ -1621,7 +1641,7 @@
         <v>-53.37</v>
       </c>
       <c r="F18" t="n">
-        <v>-96.89</v>
+        <v>-59.09</v>
       </c>
       <c r="G18" t="n">
         <v>-50.52</v>
@@ -1633,7 +1653,7 @@
         <v>-52.58</v>
       </c>
       <c r="J18" t="n">
-        <v>-97.02</v>
+        <v>-57.7</v>
       </c>
       <c r="K18" t="n">
         <v>-42.48</v>
@@ -1645,7 +1665,7 @@
         <v>-55.42</v>
       </c>
       <c r="N18" t="n">
-        <v>-96.42</v>
+        <v>-62.67</v>
       </c>
       <c r="O18" t="n">
         <v>-49.16</v>
@@ -1657,7 +1677,7 @@
         <v>-53.88</v>
       </c>
       <c r="R18" t="n">
-        <v>-96.8</v>
+        <v>-59.47</v>
       </c>
       <c r="S18" t="n">
         <v>15.14</v>
@@ -1669,7 +1689,7 @@
         <v>-16.44</v>
       </c>
       <c r="V18" t="n">
-        <v>-98.6</v>
+        <v>-31.36</v>
       </c>
     </row>
     <row r="19">
@@ -1689,7 +1709,7 @@
         <v>-8.43</v>
       </c>
       <c r="F19" t="n">
-        <v>-97.9</v>
+        <v>-8.18</v>
       </c>
       <c r="G19" t="n">
         <v>-9.73</v>
@@ -1701,7 +1721,7 @@
         <v>-11.08</v>
       </c>
       <c r="J19" t="n">
-        <v>-98.09</v>
+        <v>-13.81</v>
       </c>
       <c r="K19" t="n">
         <v>28.73</v>
@@ -1713,7 +1733,7 @@
         <v>-0.33</v>
       </c>
       <c r="N19" t="n">
-        <v>-97.2</v>
+        <v>8.99</v>
       </c>
       <c r="O19" t="n">
         <v>-4.65</v>
@@ -1725,7 +1745,7 @@
         <v>-10.5</v>
       </c>
       <c r="R19" t="n">
-        <v>-97.91</v>
+        <v>-10.96</v>
       </c>
       <c r="S19" t="n">
         <v>157.51</v>
@@ -1737,7 +1757,7 @@
         <v>65.44</v>
       </c>
       <c r="V19" t="n">
-        <v>-97.65</v>
+        <v>91.25</v>
       </c>
     </row>
     <row r="20">
@@ -1757,7 +1777,7 @@
         <v>-29.83</v>
       </c>
       <c r="F20" t="n">
-        <v>-87.44</v>
+        <v>-12.48</v>
       </c>
       <c r="G20" t="n">
         <v>-26.26</v>
@@ -1769,7 +1789,7 @@
         <v>-33.48</v>
       </c>
       <c r="J20" t="n">
-        <v>-87.43</v>
+        <v>-15.05</v>
       </c>
       <c r="K20" t="n">
         <v>13.21</v>
@@ -1781,7 +1801,7 @@
         <v>-14.87</v>
       </c>
       <c r="N20" t="n">
-        <v>-87.48</v>
+        <v>-1.98</v>
       </c>
       <c r="O20" t="n">
         <v>-22.36</v>
@@ -1793,7 +1813,7 @@
         <v>-34.64</v>
       </c>
       <c r="R20" t="n">
-        <v>-87.96</v>
+        <v>-15.5</v>
       </c>
       <c r="S20" t="n">
         <v>44.63</v>
@@ -1805,7 +1825,7 @@
         <v>49.01</v>
       </c>
       <c r="V20" t="n">
-        <v>-77.75</v>
+        <v>37.07</v>
       </c>
     </row>
     <row r="21">
@@ -1825,7 +1845,7 @@
         <v>-49.91</v>
       </c>
       <c r="F21" t="n">
-        <v>-97.33</v>
+        <v>-42.41</v>
       </c>
       <c r="G21" t="n">
         <v>-41.39</v>
@@ -1837,7 +1857,7 @@
         <v>-53.53</v>
       </c>
       <c r="J21" t="n">
-        <v>-97.39</v>
+        <v>-45.22</v>
       </c>
       <c r="K21" t="n">
         <v>-16.38</v>
@@ -1849,7 +1869,7 @@
         <v>-35.53</v>
       </c>
       <c r="N21" t="n">
-        <v>-97.09</v>
+        <v>-31.24</v>
       </c>
       <c r="O21" t="n">
         <v>-39.59</v>
@@ -1861,7 +1881,7 @@
         <v>-51.18</v>
       </c>
       <c r="R21" t="n">
-        <v>-97.41</v>
+        <v>-43.83</v>
       </c>
       <c r="S21" t="n">
         <v>17.81</v>
@@ -1873,7 +1893,7 @@
         <v>-28.7</v>
       </c>
       <c r="V21" t="n">
-        <v>-95.8</v>
+        <v>-18.48</v>
       </c>
     </row>
   </sheetData>
